--- a/biology/Zoologie/Elasmotheriina/Elasmotheriina.xlsx
+++ b/biology/Zoologie/Elasmotheriina/Elasmotheriina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Elasmotheriinae ont été renommés Elasmotherina (en 1989)[1],[2] et ont été reclassé en sous-tribu éteinte des Rhinocerotini dans la famille des Rhinocerotidae. Ce groupe a vécu du Miocène inférieur (Bugtirhinus des collines des Bugti au Pakistan) au Pléistocène supérieur (Elasmotherium)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Elasmotheriinae ont été renommés Elasmotherina (en 1989), et ont été reclassé en sous-tribu éteinte des Rhinocerotini dans la famille des Rhinocerotidae. Ce groupe a vécu du Miocène inférieur (Bugtirhinus des collines des Bugti au Pakistan) au Pléistocène supérieur (Elasmotherium).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Elasmotheriina sont des rhinocéros de grande taille, plutôt élancés et adaptés aux milieux ouverts. Ils possédaient de grandes cornes caractéristiques comme, entre autres, celle d'Elasmotherium pouvant atteindre les 2 mètres de hauteur.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sinotherium
 Elasmotherium
@@ -550,11 +566,11 @@
 Ningxiatherium
 Hispanotherium
 Bugtirhinus
-Selon The Paleobiology Database[1] :
+Selon The Paleobiology Database :
 Iranotherium Ringström 1924
 Kenyatherium Aguirre and Guerin 1974
 Sinotherium Ringstrom 1924
-Selon Biolib[3] :
+Selon Biolib :
 Elasmotherium J. Fischer, 1808
 Hispanotherium Crusafont &amp; Villalta, 1947
 Iranotherium Ringström, 1924
